--- a/raw/Результати Simply Green з Mamihlapinatapai.xlsx
+++ b/raw/Результати Simply Green з Mamihlapinatapai.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>▲ Город</t>
   </si>
@@ -196,13 +196,16 @@
   </si>
   <si>
     <t>Рівне</t>
+  </si>
+  <si>
+    <t>Легіон</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +226,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,11 +259,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
@@ -536,10 +547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Аркуш1"/>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +605,7 @@
         <v>7</v>
       </c>
       <c r="G2">
-        <f>_xlfn.RANK.AVG(C2,$C$2:$C$37)</f>
+        <f>_xlfn.RANK.AVG(C2,$C$2:$C$38)</f>
         <v>1</v>
       </c>
     </row>
@@ -618,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <f>_xlfn.RANK.AVG(C3,$C$2:$C$37)</f>
+        <f>_xlfn.RANK.AVG(C3,$C$2:$C$38)</f>
         <v>2</v>
       </c>
     </row>
@@ -690,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="G6">
-        <f>_xlfn.RANK.AVG(C6,$C$2:$C$37)</f>
+        <f>_xlfn.RANK.AVG(C6,$C$2:$C$38)</f>
         <v>5</v>
       </c>
     </row>
@@ -852,7 +863,7 @@
         <v>6</v>
       </c>
       <c r="G13">
-        <f>_xlfn.RANK.AVG(C13,$C$2:$C$37)</f>
+        <f>_xlfn.RANK.AVG(C13,$C$2:$C$38)</f>
         <v>12</v>
       </c>
     </row>
@@ -1152,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="G26">
-        <f>_xlfn.RANK.AVG(C26,$C$2:$C$37)</f>
+        <f>_xlfn.RANK.AVG(C26,$C$2:$C$38)</f>
         <v>25</v>
       </c>
     </row>
@@ -1176,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <f>_xlfn.RANK.AVG(C27,$C$2:$C$37)</f>
+        <f>_xlfn.RANK.AVG(C27,$C$2:$C$38)</f>
         <v>26</v>
       </c>
     </row>
@@ -1246,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <f>_xlfn.RANK.AVG(C30,$C$2:$C$37)</f>
+        <f>_xlfn.RANK.AVG(C30,$C$2:$C$38)</f>
         <v>29</v>
       </c>
     </row>
@@ -1339,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <f>_xlfn.RANK.AVG(C34,$C$2:$C$37)</f>
+        <f>_xlfn.RANK.AVG(C34,$C$2:$C$38)</f>
         <v>33</v>
       </c>
     </row>
@@ -1363,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="G35">
-        <f>_xlfn.RANK.AVG(C35,$C$2:$C$37)</f>
+        <f>_xlfn.RANK.AVG(C35,$C$2:$C$38)</f>
         <v>34</v>
       </c>
     </row>
@@ -1387,19 +1398,19 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <f>_xlfn.RANK.AVG(C36,$C$2:$C$37)</f>
+        <f>_xlfn.RANK.AVG(C36,$C$2:$C$38)</f>
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>21</v>
+      <c r="A37" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1408,11 +1419,34 @@
         <v>3</v>
       </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
         <v>0</v>
       </c>
-      <c r="G37">
-        <f>_xlfn.RANK.AVG(C37,$C$2:$C$37)</f>
-        <v>36</v>
+      <c r="G38">
+        <f>_xlfn.RANK.AVG(C38,$C$2:$C$38)</f>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
